--- a/SCBAA/2018/Region 11.xlsx
+++ b/SCBAA/2018/Region 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B402123-53A3-439F-AD07-26EFF6CE3F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFDC67-7A47-4C46-8D7D-E44C636A2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="1545" windowWidth="13005" windowHeight="12495" firstSheet="1" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Digos" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1648,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F106" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1814,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>48845184.529999994</v>
       </c>
     </row>
@@ -1861,7 +1867,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>178975900.42999998</v>
       </c>
     </row>
@@ -2052,7 +2057,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>902459260.57000005</v>
       </c>
     </row>
@@ -2609,7 +2613,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="62">
-        <f>25508049.85+342111355.05</f>
         <v>367619404.90000004</v>
       </c>
     </row>
@@ -2621,7 +2624,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="62">
-        <f>9175230.75+21583530.1</f>
         <v>30758760.850000001</v>
       </c>
     </row>
@@ -2631,7 +2633,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>796470106.24000001</v>
       </c>
     </row>
@@ -2798,7 +2799,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="62">
-        <f>970000+5488520.27</f>
         <v>6458520.2699999996</v>
       </c>
     </row>
@@ -2807,7 +2807,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>6685040.2699999996</v>
       </c>
     </row>
@@ -2819,7 +2818,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>803155146.50999999</v>
       </c>
     </row>
@@ -2841,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50FEDA-E51F-4ADA-8EBE-287218B179DA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +2998,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>3693766493.6900001</v>
       </c>
     </row>
@@ -3054,7 +3051,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>1087908782.6500001</v>
       </c>
     </row>
@@ -3245,7 +3241,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>10239039791.450001</v>
       </c>
     </row>
@@ -3636,7 +3631,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="68">
-        <f>471143+13431054.66</f>
         <v>13902197.66</v>
       </c>
     </row>
@@ -3823,7 +3817,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>6991423933.9899998</v>
       </c>
     </row>
@@ -3998,7 +3991,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -4010,7 +4002,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>6991423933.9899998</v>
       </c>
     </row>
@@ -4032,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4191,7 +4182,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>63088827.429999992</v>
       </c>
     </row>
@@ -4245,7 +4235,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>59243397.689999998</v>
       </c>
     </row>
@@ -4436,7 +4425,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>716011442.29999995</v>
       </c>
     </row>
@@ -4982,7 +4970,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="61">
-        <f>16961539.54+324000</f>
         <v>17285539.539999999</v>
       </c>
     </row>
@@ -5014,7 +5001,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>594526572.44999981</v>
       </c>
     </row>
@@ -5181,7 +5167,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="61">
-        <f>32916280.66+7227838.88+3010686.64</f>
         <v>43154806.18</v>
       </c>
     </row>
@@ -5190,7 +5175,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>142102298.38</v>
       </c>
     </row>
@@ -5202,7 +5186,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>736628870.8299998</v>
       </c>
     </row>
@@ -7605,7 +7588,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7763,7 +7746,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>460308598.26999998</v>
       </c>
     </row>
@@ -7817,7 +7799,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>298416533.13999999</v>
       </c>
     </row>
@@ -8008,7 +7989,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1494117015.3999999</v>
       </c>
     </row>
@@ -8554,7 +8534,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="37">
-        <f>1519208.17+22213446.35</f>
         <v>23732654.520000003</v>
       </c>
     </row>
@@ -8586,7 +8565,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1434697252.77</v>
       </c>
     </row>
@@ -8753,7 +8731,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="43">
-        <f>44687818.97+2485685.69</f>
         <v>47173504.659999996</v>
       </c>
     </row>
@@ -8762,7 +8739,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>528882612.15999997</v>
       </c>
     </row>
@@ -8774,7 +8750,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1963579864.9299998</v>
       </c>
     </row>
